--- a/TestAutomationFramework/src/test/resources/testdata.xlsx
+++ b/TestAutomationFramework/src/test/resources/testdata.xlsx
@@ -3,58 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_82EC4A2804934E4664485A61D24978EA7044D3CC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90992BFA-FCA7-4763-849A-BABB527ECCE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173337B-D1F4-4F37-949F-A4778BD03702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="3" r:id="rId1"/>
-    <sheet name="RunManager" sheetId="1" r:id="rId2"/>
-    <sheet name="TestData_Exist" sheetId="4" r:id="rId3"/>
-    <sheet name="RunManager_Exist" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
-  <si>
-    <t>TestCaseName</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>Test Case Description</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>searchvalue</t>
-  </si>
-  <si>
-    <t>Blouse</t>
-  </si>
-  <si>
-    <t>Printed Dress</t>
-  </si>
-  <si>
-    <t>validateSearchInHomePage</t>
-  </si>
-  <si>
-    <t>validateErrorMessageOnLogin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -62,45 +23,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
-    <t>abcd1234</t>
-  </si>
-  <si>
-    <t>wer1234@gmail.com</t>
-  </si>
-  <si>
-    <t>abcd345</t>
-  </si>
-  <si>
-    <t>errormessage</t>
-  </si>
-  <si>
-    <t>There is 1 error</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>validateErrorMessageOnLoginSignInPage</t>
-  </si>
-  <si>
-    <t>Validate the search in Home Page</t>
-  </si>
-  <si>
-    <t>Validate the error message for incorrect login</t>
-  </si>
-  <si>
-    <t>Validate the error message for incorrect login from SigninPageTests</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>signUpConversationalAI</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -135,9 +57,6 @@
   </si>
   <si>
     <t>test3@sap.com</t>
-  </si>
-  <si>
-    <t>Platform Sign up</t>
   </si>
 </sst>
 </file>
@@ -188,12 +107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,327 +464,68 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1C5AE219-0FCA-4917-A472-05DEE40A8DD6}"/>
+    <hyperlink ref="C3" r:id="rId2" display="test@sap.com" xr:uid="{CFB3D21D-0369-4E95-B26E-FB509F30662F}"/>
+    <hyperlink ref="C4" r:id="rId3" display="test@sap.com" xr:uid="{E1379822-F0B5-45CA-A612-FEC2541138F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A01CC1-0D50-4072-8DDB-03E54D9FA4F7}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{23C82F08-B77A-49A2-A04C-EB830DFB9FCE}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{44AEAF6E-9915-4602-9023-0C782C4A9830}"/>
-    <hyperlink ref="C10" r:id="rId3" display="test@sap.com" xr:uid="{D7BAAA78-BCCB-4E10-B57B-EF578FDE8BCD}"/>
-    <hyperlink ref="C11" r:id="rId4" display="test@sap.com" xr:uid="{9EC852C4-2F62-44E1-A236-A35275E02206}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF16FA4-DB70-4149-A934-AB5CFFACA88C}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="43.90625" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TestAutomationFramework/src/test/resources/testdata.xlsx
+++ b/TestAutomationFramework/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173337B-D1F4-4F37-949F-A4778BD03702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2A8BC-B711-4AB9-9629-9DFA24259DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>Sampath</t>
   </si>
   <si>
-    <t>test@sap.com</t>
-  </si>
-  <si>
     <t>Test$123</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>test3@sap.com</t>
+  </si>
+  <si>
+    <t>testdqefewfewf@sap.com</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -484,44 +486,44 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1C5AE219-0FCA-4917-A472-05DEE40A8DD6}"/>
+    <hyperlink ref="C2" r:id="rId1" display="test@sap.com" xr:uid="{1C5AE219-0FCA-4917-A472-05DEE40A8DD6}"/>
     <hyperlink ref="C3" r:id="rId2" display="test@sap.com" xr:uid="{CFB3D21D-0369-4E95-B26E-FB509F30662F}"/>
     <hyperlink ref="C4" r:id="rId3" display="test@sap.com" xr:uid="{E1379822-F0B5-45CA-A612-FEC2541138F9}"/>
   </hyperlinks>
